--- a/数据整理/stocks/A股/上证主板/601881-中国银河.xlsx
+++ b/数据整理/stocks/A股/上证主板/601881-中国银河.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,19 @@
     <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
   </si>
   <si>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
     <t>94.40</t>
   </si>
   <si>
     <t>1.41</t>
+  </si>
+  <si>
+    <t>0.0502</t>
   </si>
 </sst>
 </file>
@@ -404,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +441,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601881-中国银河.xlsx
+++ b/数据整理/stocks/A股/上证主板/601881-中国银河.xlsx
@@ -1,99 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>005055</t>
-  </si>
-  <si>
-    <t>006532</t>
-  </si>
-  <si>
-    <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
-  </si>
-  <si>
-    <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
-  </si>
-  <si>
-    <t>3.56</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>94.40</t>
-  </si>
-  <si>
-    <t>1.41</t>
-  </si>
-  <si>
-    <t>0.0502</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -418,89 +446,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4952</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601881-中国银河.xlsx
+++ b/数据整理/stocks/A股/上证主板/601881-中国银河.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -667,4 +668,248 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1227</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601881-中国银河.xlsx
+++ b/数据整理/stocks/A股/上证主板/601881-中国银河.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -912,4 +913,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601881-中国银河.xlsx
+++ b/数据整理/stocks/A股/上证主板/601881-中国银河.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -921,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -932,17 +933,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -952,14 +973,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.16</v>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0747</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -968,14 +1011,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -984,13 +1049,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601881-中国银河.xlsx
+++ b/数据整理/stocks/A股/上证主板/601881-中国银河.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1092,7 +1093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,17 +1104,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1123,14 +1144,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.08</v>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5951</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1139,14 +1182,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>001974</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3075</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.16</v>
       </c>
     </row>
     <row r="4">
@@ -1155,14 +1220,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5</v>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2945</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1171,13 +1258,949 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2203</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001362</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001074</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005325</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005326</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001379</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001073</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>62.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006531</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601881-中国银河.xlsx
+++ b/数据整理/stocks/A股/上证主板/601881-中国银河.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2099,7 +2100,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2110,17 +2111,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2130,14 +2151,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.93</v>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3734</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2146,14 +2189,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.08</v>
       </c>
     </row>
     <row r="4">
@@ -2162,14 +2227,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.16</v>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2178,14 +2265,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5</v>
+          <t>161811</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华沪深300指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2194,13 +2303,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601881-中国银河.xlsx
+++ b/数据整理/stocks/A股/上证主板/601881-中国银河.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.59</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.93</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.16</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -583,6 +600,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015062</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014861</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014862</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -866,7 +1243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1872,7 +2249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2042,7 +2419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2286,7 +2663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2380,7 +2757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601881-中国银河.xlsx
+++ b/数据整理/stocks/A股/上证主板/601881-中国银河.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.59</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.93</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.16</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -600,6 +617,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4630</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1243,7 +1506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2249,7 +2512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2419,7 +2682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2663,7 +2926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2757,7 +3020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
